--- a/web/src/main/resources/static/excel/stock_in.xlsx
+++ b/web/src/main/resources/static/excel/stock_in.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanxl\Desktop\数据导入\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanxl\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>商铺编号</t>
   </si>
@@ -61,6 +61,10 @@
   </si>
   <si>
     <t>采购单状态</t>
+  </si>
+  <si>
+    <t>商铺名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -452,83 +456,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="10.75" customWidth="1"/>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="6" width="9.625" customWidth="1"/>
-    <col min="7" max="7" width="11.875" customWidth="1"/>
-    <col min="8" max="9" width="9.625" customWidth="1"/>
-    <col min="10" max="10" width="25.5" customWidth="1"/>
-    <col min="11" max="11" width="7.625" customWidth="1"/>
-    <col min="12" max="12" width="9.625" customWidth="1"/>
-    <col min="13" max="13" width="22.125" customWidth="1"/>
-    <col min="14" max="14" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="10.75" customWidth="1"/>
+    <col min="4" max="4" width="14.75" customWidth="1"/>
+    <col min="5" max="7" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="11.875" customWidth="1"/>
+    <col min="9" max="10" width="9.625" customWidth="1"/>
+    <col min="11" max="11" width="25.5" customWidth="1"/>
+    <col min="12" max="12" width="7.625" customWidth="1"/>
+    <col min="13" max="13" width="9.625" customWidth="1"/>
+    <col min="14" max="14" width="22.125" customWidth="1"/>
+    <col min="15" max="15" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="6"/>
+    <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="8"/>
+      <c r="K2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
